--- a/src/data/dataTransaksi.xlsx
+++ b/src/data/dataTransaksi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>tanggal</t>
   </si>
@@ -42,25 +42,109 @@
     <t>PHD</t>
   </si>
   <si>
-    <t>ID001</t>
-  </si>
-  <si>
-    <t>ID002</t>
-  </si>
-  <si>
-    <t>ID004</t>
-  </si>
-  <si>
-    <t>ID003</t>
-  </si>
-  <si>
-    <t>ID005</t>
-  </si>
-  <si>
     <t>PHD2</t>
   </si>
   <si>
     <t>Aciap2</t>
+  </si>
+  <si>
+    <t>#ID07001</t>
+  </si>
+  <si>
+    <t>#ID07002</t>
+  </si>
+  <si>
+    <t>#ID07003</t>
+  </si>
+  <si>
+    <t>#ID07004</t>
+  </si>
+  <si>
+    <t>#ID09001</t>
+  </si>
+  <si>
+    <t>#ID09002</t>
+  </si>
+  <si>
+    <t>#ID09003</t>
+  </si>
+  <si>
+    <t>#ID09004</t>
+  </si>
+  <si>
+    <t>#ID09005</t>
+  </si>
+  <si>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>#ID26007</t>
+  </si>
+  <si>
+    <t>#ID26006</t>
+  </si>
+  <si>
+    <t>#ID26008</t>
+  </si>
+  <si>
+    <t>Ootoya</t>
+  </si>
+  <si>
+    <t>#ID26009</t>
+  </si>
+  <si>
+    <t>Mangkok Putih</t>
+  </si>
+  <si>
+    <t>#ID26010</t>
+  </si>
+  <si>
+    <t>Kyochon</t>
+  </si>
+  <si>
+    <t>#ID26011</t>
+  </si>
+  <si>
+    <t>Ayam Bakar Ganthari</t>
+  </si>
+  <si>
+    <t>#ID26012</t>
+  </si>
+  <si>
+    <t>Han Gang</t>
+  </si>
+  <si>
+    <t>#ID26013</t>
+  </si>
+  <si>
+    <t>#ID26014</t>
+  </si>
+  <si>
+    <t>#ID26015</t>
+  </si>
+  <si>
+    <t>#ID26016</t>
+  </si>
+  <si>
+    <t>#ID26017</t>
+  </si>
+  <si>
+    <t>#ID26018</t>
+  </si>
+  <si>
+    <t>#ID26019</t>
+  </si>
+  <si>
+    <t>Oto Bento</t>
+  </si>
+  <si>
+    <t>#ID26020</t>
+  </si>
+  <si>
+    <t>#ID26021</t>
+  </si>
+  <si>
+    <t>#ID26022</t>
   </si>
 </sst>
 </file>
@@ -96,13 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,16 +466,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D2:D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -416,7 +498,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -430,7 +512,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -444,7 +526,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
@@ -458,7 +540,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -472,7 +554,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -486,7 +568,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
@@ -500,7 +582,7 @@
         <v>43227.464328807902</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -510,11 +592,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -524,11 +606,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -538,11 +620,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -552,11 +634,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -566,11 +648,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -580,31 +662,269 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1">
         <v>12000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43229.494359791664</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1">
         <v>56000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43277.548387800925</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>43277.551380949073</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>671000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>43277.557684236112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>43277.573305821759</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>43277.576831597224</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>7250000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43277.581823252316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>43277.584624988427</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>894240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>43277.59375857639</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>43277.595961134262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1606000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>43277.599699745369</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>43277.60106296296</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>43277.60274412037</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>43277.608585428243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>283800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>43277.610712928239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>43277.612421550926</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>491832.00000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>43277.613356018519</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>43277.618180381942</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32">
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/dataTransaksi.xlsx
+++ b/src/data/dataTransaksi.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2018" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>tanggal</t>
   </si>
@@ -60,39 +60,15 @@
     <t>#ID07004</t>
   </si>
   <si>
-    <t>#ID09001</t>
-  </si>
-  <si>
-    <t>#ID09002</t>
-  </si>
-  <si>
-    <t>#ID09003</t>
-  </si>
-  <si>
-    <t>#ID09004</t>
-  </si>
-  <si>
     <t>#ID09005</t>
   </si>
   <si>
     <t>Bodega</t>
   </si>
   <si>
-    <t>#ID26007</t>
-  </si>
-  <si>
-    <t>#ID26006</t>
-  </si>
-  <si>
-    <t>#ID26008</t>
-  </si>
-  <si>
     <t>Ootoya</t>
   </si>
   <si>
-    <t>#ID26009</t>
-  </si>
-  <si>
     <t>Mangkok Putih</t>
   </si>
   <si>
@@ -145,12 +121,43 @@
   </si>
   <si>
     <t>#ID26022</t>
+  </si>
+  <si>
+    <t>#ID09006</t>
+  </si>
+  <si>
+    <t>#ID09007</t>
+  </si>
+  <si>
+    <t>#ID09008</t>
+  </si>
+  <si>
+    <t>#ID09009</t>
+  </si>
+  <si>
+    <t>#ID26023</t>
+  </si>
+  <si>
+    <t>#ID26024</t>
+  </si>
+  <si>
+    <t>#ID26025</t>
+  </si>
+  <si>
+    <t>#ID26026</t>
+  </si>
+  <si>
+    <t>#ID30027</t>
+  </si>
+  <si>
+    <t>Arasseo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,20 +185,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,10 +215,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -246,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,21 +382,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -406,7 +413,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -458,25 +465,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.90625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -624,7 +631,7 @@
         <v>43229.494359791664</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -638,7 +645,7 @@
         <v>43229.494359791664</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>6</v>
@@ -652,7 +659,7 @@
         <v>43229.494359791664</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>4</v>
@@ -666,7 +673,7 @@
         <v>43229.494359791664</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -680,7 +687,7 @@
         <v>43229.494359791664</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -694,10 +701,10 @@
         <v>43277.548387800925</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1430000</v>
@@ -711,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>671000</v>
@@ -725,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>80000</v>
@@ -739,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>112000</v>
@@ -750,10 +757,10 @@
         <v>43277.576831597224</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>7250000</v>
@@ -764,10 +771,10 @@
         <v>43277.581823252316</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>20000</v>
@@ -778,10 +785,10 @@
         <v>43277.584624988427</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>894240</v>
@@ -792,10 +799,10 @@
         <v>43277.59375857639</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>1430000</v>
@@ -806,10 +813,10 @@
         <v>43277.595961134262</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>1606000</v>
@@ -820,10 +827,10 @@
         <v>43277.599699745369</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>20000</v>
@@ -834,10 +841,10 @@
         <v>43277.60106296296</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>138000</v>
@@ -848,10 +855,10 @@
         <v>43277.60274412037</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>1500000</v>
@@ -862,7 +869,7 @@
         <v>43277.608585428243</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -876,10 +883,10 @@
         <v>43277.610712928239</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>11000</v>
@@ -893,7 +900,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>491832.00000000006</v>
@@ -907,7 +914,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>22000</v>
@@ -921,13 +928,41 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>22000</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>43281.922037662036</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="n">
+        <v>491150.00000000006</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>43281.922037662036</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>91300.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/data/dataTransaksi.xlsx
+++ b/src/data/dataTransaksi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>tanggal</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>Arasseo</t>
+  </si>
+  <si>
+    <t>#ID02028</t>
+  </si>
+  <si>
+    <t>#ID02029</t>
+  </si>
+  <si>
+    <t>Kacamata</t>
+  </si>
+  <si>
+    <t>#ID02030</t>
+  </si>
+  <si>
+    <t>#ID02031</t>
+  </si>
+  <si>
+    <t>#ID02032</t>
+  </si>
+  <si>
+    <t>#ID02033</t>
   </si>
 </sst>
 </file>
@@ -473,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B32"/>
@@ -962,6 +983,118 @@
         <v>91300.0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>43283.321746967595</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="n">
+        <v>27500.000000000004</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>43283.321746967595</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11000.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>43283.3498862037</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="n">
+        <v>142780.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>43283.3498862037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>209000.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43283.356962060185</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="n">
+        <v>82280.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>43283.357857511575</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="n">
+        <v>394460.00000000006</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>43283.359090115744</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="n">
+        <v>108900.00000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>43283.42368449074</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="n">
+        <v>142780.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/data/dataTransaksi.xlsx
+++ b/src/data/dataTransaksi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>tanggal</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>#ID02033</t>
+  </si>
+  <si>
+    <t>#ID02034</t>
+  </si>
+  <si>
+    <t>#ID03035</t>
+  </si>
+  <si>
+    <t>#ID03036</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B32"/>
@@ -1095,6 +1104,48 @@
         <v>142780.0</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43283.715720532404</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="n">
+        <v>142780.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43284.37010010417</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>27500.000000000004</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43284.372528912034</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>167200.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
